--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l1-2/0_upgrade_char_again.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l1-2/0_upgrade_char_again.xlsx
@@ -76,15 +76,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] If you still haven’t upgraded your Operators, I will guide you through the process one more time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] I am sure you’ve noticed that our victories are not due to one single Operator, but rather everyone working together as a team.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya", protectTime=0.5)] Therefore, I’d highly recommend that you &lt;@tu.kw&gt;improve all your Operators&lt;/&gt;.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] If you still haven't upgraded your Operators, I will guide you through the process one more time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] I am sure you've noticed that our victories are not due to one single Operator, but rather everyone working together as a team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya", protectTime=0.5)] Therefore, I'd highly recommend that you &lt;@tu.kw&gt;improve all your Operators&lt;/&gt;.
 </t>
   </si>
   <si>
